--- a/runs/run936/NotionalETEOutput936.xlsx
+++ b/runs/run936/NotionalETEOutput936.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT2_State_Update</t>
+    <t>Missile_ANGERMAX2_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT2_74.MISSILE_SOMERSAULT2_74</t>
+    <t>MISSILE_ANGERMAX2_116.MISSILE_ANGERMAX2_116</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT2</t>
+    <t>MISSILE_ANGERMAX2</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1516.045714459344</v>
+        <v>-1449.2804302148</v>
       </c>
       <c r="J2">
-        <v>1986.980994546622</v>
+        <v>1977.028300098275</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1513.130912419016</v>
+        <v>-1419.17582881296</v>
       </c>
       <c r="J3">
-        <v>2043.739919697786</v>
+        <v>2027.820367762372</v>
       </c>
       <c r="K3">
-        <v>299.2878933669963</v>
+        <v>303.7748054960973</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1427.291933029634</v>
+        <v>-1456.928040944807</v>
       </c>
       <c r="J4">
-        <v>1875.592008788511</v>
+        <v>1861.87838577976</v>
       </c>
       <c r="K4">
-        <v>573.3847307330708</v>
+        <v>579.439367967405</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1474.909986067967</v>
+        <v>-1362.570050151109</v>
       </c>
       <c r="J5">
-        <v>1805.224063625034</v>
+        <v>1763.994994161482</v>
       </c>
       <c r="K5">
-        <v>862.9910563135651</v>
+        <v>839.9247140554893</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1444.68855288613</v>
+        <v>-1380.630217110905</v>
       </c>
       <c r="J6">
-        <v>1731.760028557414</v>
+        <v>1879.649889513709</v>
       </c>
       <c r="K6">
-        <v>1149.894762695224</v>
+        <v>1110.83773817671</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1347.483096841619</v>
+        <v>-1339.33437469339</v>
       </c>
       <c r="J7">
-        <v>1693.01174561048</v>
+        <v>1671.810119082846</v>
       </c>
       <c r="K7">
-        <v>1329.094288602352</v>
+        <v>1396.197169646671</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1262.536427405428</v>
+        <v>-1247.919808783375</v>
       </c>
       <c r="J8">
-        <v>1756.627714683407</v>
+        <v>1766.65380436552</v>
       </c>
       <c r="K8">
-        <v>1661.273264632678</v>
+        <v>1516.965175489143</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-100.6462824874507</v>
+        <v>-99.22549036800456</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1334.186720011548</v>
+        <v>-1331.293012484418</v>
       </c>
       <c r="J9">
-        <v>1639.598037705826</v>
+        <v>1725.831886588456</v>
       </c>
       <c r="K9">
-        <v>1880.18416383838</v>
+        <v>1723.803379113947</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>215.2853138181203</v>
+        <v>227.2346270138727</v>
       </c>
       <c r="G10">
-        <v>-79.64086534849038</v>
+        <v>-85.78543995045247</v>
       </c>
       <c r="H10">
-        <v>836.3314456385292</v>
+        <v>818.2578404566814</v>
       </c>
       <c r="I10">
-        <v>-1198.969902555359</v>
+        <v>-1217.284931649462</v>
       </c>
       <c r="J10">
-        <v>1546.470791969913</v>
+        <v>1619.115878247228</v>
       </c>
       <c r="K10">
-        <v>2100.834827262919</v>
+        <v>2011.876995383458</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>170.5473285348286</v>
+        <v>161.6758977275963</v>
       </c>
       <c r="G11">
-        <v>-68.32435592024277</v>
+        <v>-66.26756430093967</v>
       </c>
       <c r="H11">
-        <v>1031.079030678744</v>
+        <v>1027.192183914657</v>
       </c>
       <c r="I11">
-        <v>-1219.137400584864</v>
+        <v>-1256.087313889818</v>
       </c>
       <c r="J11">
-        <v>1605.18020902821</v>
+        <v>1578.190953571591</v>
       </c>
       <c r="K11">
-        <v>2181.396428251965</v>
+        <v>2146.440584749828</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>141.7241723446694</v>
+        <v>134.0341563129821</v>
       </c>
       <c r="G12">
-        <v>-51.87632517525503</v>
+        <v>-49.25533994286494</v>
       </c>
       <c r="H12">
-        <v>1188.050320886169</v>
+        <v>1217.93025661417</v>
       </c>
       <c r="I12">
-        <v>-1207.043159738701</v>
+        <v>-1145.312927559072</v>
       </c>
       <c r="J12">
-        <v>1545.20433718486</v>
+        <v>1529.792211777481</v>
       </c>
       <c r="K12">
-        <v>2427.612408974746</v>
+        <v>2385.354235600447</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>116.7593221172426</v>
+        <v>120.77694811644</v>
       </c>
       <c r="G13">
-        <v>-35.47772705865853</v>
+        <v>-34.46243738529172</v>
       </c>
       <c r="H13">
-        <v>1280.418517759868</v>
+        <v>1206.196246310807</v>
       </c>
       <c r="I13">
-        <v>-1108.295362283617</v>
+        <v>-1151.212986008487</v>
       </c>
       <c r="J13">
-        <v>1515.717596135551</v>
+        <v>1394.167421984845</v>
       </c>
       <c r="K13">
-        <v>2437.250013415301</v>
+        <v>2553.1237931409</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>109.553967878771</v>
+        <v>113.0986230343874</v>
       </c>
       <c r="G14">
-        <v>-17.12311355247155</v>
+        <v>-17.53666085656132</v>
       </c>
       <c r="H14">
-        <v>1292.707177855627</v>
+        <v>1317.468996962229</v>
       </c>
       <c r="I14">
-        <v>-1060.502673084542</v>
+        <v>-1087.498361101058</v>
       </c>
       <c r="J14">
-        <v>1410.914967565765</v>
+        <v>1354.861904048244</v>
       </c>
       <c r="K14">
-        <v>2545.082862520927</v>
+        <v>2570.661198876283</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>103.4108263894574</v>
+        <v>101.0951529068201</v>
       </c>
       <c r="G15">
-        <v>-0.9561985883516566</v>
+        <v>-0.9130330697529589</v>
       </c>
       <c r="H15">
-        <v>1317.525452101975</v>
+        <v>1316.091146903035</v>
       </c>
       <c r="I15">
-        <v>-1005.923758859329</v>
+        <v>-1087.905495743562</v>
       </c>
       <c r="J15">
-        <v>1317.070353773777</v>
+        <v>1309.749905179027</v>
       </c>
       <c r="K15">
-        <v>2772.828131983512</v>
+        <v>2821.540417512971</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>91.69761334323645</v>
+        <v>94.08347306661074</v>
       </c>
       <c r="G16">
-        <v>15.92828992213866</v>
+        <v>14.8473031435289</v>
       </c>
       <c r="H16">
-        <v>1368.67636696569</v>
+        <v>1437.217348572123</v>
       </c>
       <c r="I16">
-        <v>-1047.728319848717</v>
+        <v>-964.3683524800683</v>
       </c>
       <c r="J16">
-        <v>1339.264136039471</v>
+        <v>1334.891507256502</v>
       </c>
       <c r="K16">
-        <v>2962.197070794543</v>
+        <v>2948.54182996906</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>87.1734086004722</v>
+        <v>84.19304303228679</v>
       </c>
       <c r="G17">
-        <v>33.09517180423056</v>
+        <v>31.21088928623768</v>
       </c>
       <c r="H17">
-        <v>1533.666831179592</v>
+        <v>1425.1859755743</v>
       </c>
       <c r="I17">
-        <v>-976.9168870139392</v>
+        <v>-925.4537118999755</v>
       </c>
       <c r="J17">
-        <v>1218.79500519139</v>
+        <v>1294.690784180176</v>
       </c>
       <c r="K17">
-        <v>2866.493952711961</v>
+        <v>3036.003269798221</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>80.63585768481332</v>
+        <v>82.81976136506627</v>
       </c>
       <c r="G18">
-        <v>47.57038276396362</v>
+        <v>46.77631635277883</v>
       </c>
       <c r="H18">
-        <v>1478.392790258939</v>
+        <v>1514.525069466318</v>
       </c>
       <c r="I18">
-        <v>-897.2888693852128</v>
+        <v>-924.3784649011174</v>
       </c>
       <c r="J18">
-        <v>1163.214178489043</v>
+        <v>1234.793053358183</v>
       </c>
       <c r="K18">
-        <v>3157.574443574875</v>
+        <v>3155.963153980164</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>74.84908752678584</v>
+        <v>80.63961465027964</v>
       </c>
       <c r="G19">
-        <v>63.88192621106207</v>
+        <v>67.90215819141731</v>
       </c>
       <c r="H19">
-        <v>1554.613088800686</v>
+        <v>1549.313353160117</v>
       </c>
       <c r="I19">
-        <v>-875.6989406864652</v>
+        <v>-869.2188708518655</v>
       </c>
       <c r="J19">
-        <v>1213.701709284183</v>
+        <v>1138.595491324442</v>
       </c>
       <c r="K19">
-        <v>3087.600957559921</v>
+        <v>3058.376192746742</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>72.97733075726185</v>
+        <v>74.16914261455618</v>
       </c>
       <c r="G20">
-        <v>81.89400597747978</v>
+        <v>79.38057249673344</v>
       </c>
       <c r="H20">
-        <v>1507.572132574387</v>
+        <v>1581.584066412553</v>
       </c>
       <c r="I20">
-        <v>-868.1984166854785</v>
+        <v>-797.3274263078866</v>
       </c>
       <c r="J20">
-        <v>1080.967116860189</v>
+        <v>1124.706719206444</v>
       </c>
       <c r="K20">
-        <v>3140.356717385873</v>
+        <v>3221.097011015169</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>67.65573396896413</v>
+        <v>70.71010073076285</v>
       </c>
       <c r="G21">
-        <v>99.03129404671334</v>
+        <v>97.27881266976524</v>
       </c>
       <c r="H21">
-        <v>1607.822539337443</v>
+        <v>1604.204911650152</v>
       </c>
       <c r="I21">
-        <v>-818.4119400915938</v>
+        <v>-797.3105144485986</v>
       </c>
       <c r="J21">
-        <v>1080.235809923762</v>
+        <v>1128.257782678542</v>
       </c>
       <c r="K21">
-        <v>3280.577702759855</v>
+        <v>3236.949068134462</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>69.0410533548571</v>
+        <v>71.37775853519085</v>
       </c>
       <c r="G22">
-        <v>113.3529063845329</v>
+        <v>110.115411904804</v>
       </c>
       <c r="H22">
-        <v>1592.250797602625</v>
+        <v>1631.267744610351</v>
       </c>
       <c r="I22">
-        <v>-783.5234091872709</v>
+        <v>-761.210531890361</v>
       </c>
       <c r="J22">
-        <v>976.87475627251</v>
+        <v>1045.555710807474</v>
       </c>
       <c r="K22">
-        <v>3240.49154561508</v>
+        <v>3077.781629199512</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>66.60498501512843</v>
+        <v>68.86514304137116</v>
       </c>
       <c r="G23">
-        <v>129.4217882030118</v>
+        <v>125.2137246382641</v>
       </c>
       <c r="H23">
-        <v>1588.547334751786</v>
+        <v>1615.600662224781</v>
       </c>
       <c r="I23">
-        <v>-732.6641364591079</v>
+        <v>-730.1220494928045</v>
       </c>
       <c r="J23">
-        <v>1018.846512592111</v>
+        <v>993.1960815280733</v>
       </c>
       <c r="K23">
-        <v>3212.103114550182</v>
+        <v>3326.535492999915</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>66.33875207829497</v>
+        <v>65.11377190025463</v>
       </c>
       <c r="G24">
-        <v>141.4229650498356</v>
+        <v>141.8418491607212</v>
       </c>
       <c r="H24">
-        <v>1590.203098764499</v>
+        <v>1685.147186278425</v>
       </c>
       <c r="I24">
-        <v>-663.2242829110246</v>
+        <v>-621.5542787379285</v>
       </c>
       <c r="J24">
-        <v>974.8488442564726</v>
+        <v>943.5209947717296</v>
       </c>
       <c r="K24">
-        <v>3274.532227626716</v>
+        <v>3243.423335189062</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>60.91166031779451</v>
+        <v>59.02623814561679</v>
       </c>
       <c r="G25">
-        <v>162.7755270739807</v>
+        <v>158.7597257724236</v>
       </c>
       <c r="H25">
-        <v>1712.870125877296</v>
+        <v>1700.370871492273</v>
       </c>
       <c r="I25">
-        <v>-586.7286648307934</v>
+        <v>-604.6487617120516</v>
       </c>
       <c r="J25">
-        <v>879.0379269884493</v>
+        <v>923.0323243126695</v>
       </c>
       <c r="K25">
-        <v>3173.450462775957</v>
+        <v>3255.699206793483</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>60.57882256033709</v>
+        <v>60.42466074395499</v>
       </c>
       <c r="G26">
-        <v>178.663946074798</v>
+        <v>172.7941791019232</v>
       </c>
       <c r="H26">
-        <v>1698.524303289955</v>
+        <v>1733.596438583731</v>
       </c>
       <c r="I26">
-        <v>-522.8197420132052</v>
+        <v>-565.6105670148089</v>
       </c>
       <c r="J26">
-        <v>814.7366039434883</v>
+        <v>805.9931756346591</v>
       </c>
       <c r="K26">
-        <v>3021.492803051619</v>
+        <v>2981.626905284568</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>58.47581263917464</v>
+        <v>60.64018475150537</v>
       </c>
       <c r="G27">
-        <v>195.6653052421746</v>
+        <v>192.3170810034912</v>
       </c>
       <c r="H27">
-        <v>1697.058134793172</v>
+        <v>1745.07930292794</v>
       </c>
       <c r="I27">
-        <v>-483.1470191475428</v>
+        <v>-503.0467618301931</v>
       </c>
       <c r="J27">
-        <v>795.3621757805563</v>
+        <v>769.4993226742487</v>
       </c>
       <c r="K27">
-        <v>2917.171570712371</v>
+        <v>2985.72911266253</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>53.72063478262501</v>
+        <v>57.71385414837083</v>
       </c>
       <c r="G28">
-        <v>215.9894186957553</v>
+        <v>213.2549936976031</v>
       </c>
       <c r="H28">
-        <v>1708.869753907197</v>
+        <v>1684.009182389922</v>
       </c>
       <c r="I28">
-        <v>-460.3420809104764</v>
+        <v>-456.6469129766088</v>
       </c>
       <c r="J28">
-        <v>747.0126868966543</v>
+        <v>762.2999008989563</v>
       </c>
       <c r="K28">
-        <v>2927.254284304072</v>
+        <v>2926.189269201264</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>53.98324020349803</v>
+        <v>57.60617266443438</v>
       </c>
       <c r="G29">
-        <v>240.6629475087077</v>
+        <v>227.4994160764548</v>
       </c>
       <c r="H29">
-        <v>1792.373211973604</v>
+        <v>1672.370798639013</v>
       </c>
       <c r="I29">
-        <v>-395.0554908478049</v>
+        <v>-395.3252393719914</v>
       </c>
       <c r="J29">
-        <v>695.9686356346173</v>
+        <v>656.66483247104</v>
       </c>
       <c r="K29">
-        <v>2994.381264899303</v>
+        <v>2960.015860596182</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>52.79753232769202</v>
+        <v>53.9128341455733</v>
       </c>
       <c r="G30">
-        <v>250.9786188449329</v>
+        <v>241.4252270217927</v>
       </c>
       <c r="H30">
-        <v>1826.09035327677</v>
+        <v>1755.17756594757</v>
       </c>
       <c r="I30">
-        <v>-324.8841995269476</v>
+        <v>-325.3394740339486</v>
       </c>
       <c r="J30">
-        <v>617.6471497933104</v>
+        <v>647.4077962250718</v>
       </c>
       <c r="K30">
-        <v>2707.608662111688</v>
+        <v>2902.28045807523</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>52.87697045979176</v>
+        <v>51.59514600425649</v>
       </c>
       <c r="G31">
-        <v>259.0899385239626</v>
+        <v>269.1050330682526</v>
       </c>
       <c r="H31">
-        <v>1689.543573929345</v>
+        <v>1705.371532710762</v>
       </c>
       <c r="I31">
-        <v>-274.3177586399883</v>
+        <v>-267.2589229014087</v>
       </c>
       <c r="J31">
-        <v>600.4748896358153</v>
+        <v>572.2926458844777</v>
       </c>
       <c r="K31">
-        <v>2570.481299803078</v>
+        <v>2617.961225285911</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>53.08516891985052</v>
+        <v>52.92544933520594</v>
       </c>
       <c r="G32">
-        <v>275.0861925681225</v>
+        <v>286.0904326215271</v>
       </c>
       <c r="H32">
-        <v>1804.327095421865</v>
+        <v>1776.116318139811</v>
       </c>
       <c r="I32">
-        <v>-217.510002304951</v>
+        <v>-201.7353255050171</v>
       </c>
       <c r="J32">
-        <v>538.3142105999657</v>
+        <v>545.7002630155199</v>
       </c>
       <c r="K32">
-        <v>2545.119486822317</v>
+        <v>2564.409537819358</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>48.31159400157534</v>
+        <v>51.435545370523</v>
       </c>
       <c r="G33">
-        <v>300.0887687419027</v>
+        <v>305.1076228651054</v>
       </c>
       <c r="H33">
-        <v>1737.406681727591</v>
+        <v>1770.397431791326</v>
       </c>
       <c r="I33">
-        <v>-147.5509291555171</v>
+        <v>-149.4820869564283</v>
       </c>
       <c r="J33">
-        <v>476.8409458278446</v>
+        <v>503.7309974871768</v>
       </c>
       <c r="K33">
-        <v>2323.874039634466</v>
+        <v>2473.468174349507</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>50.52539126441287</v>
+        <v>47.07006410708672</v>
       </c>
       <c r="G34">
-        <v>312.3099363578844</v>
+        <v>303.2080792515782</v>
       </c>
       <c r="H34">
-        <v>1861.906144714807</v>
+        <v>1777.623293156088</v>
       </c>
       <c r="I34">
-        <v>-86.56659164876989</v>
+        <v>-79.13654384238748</v>
       </c>
       <c r="J34">
-        <v>424.9956411208677</v>
+        <v>430.1572421916051</v>
       </c>
       <c r="K34">
-        <v>2261.019521818314</v>
+        <v>2163.398528928978</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>49.41053732433154</v>
+        <v>50.56287255541289</v>
       </c>
       <c r="G35">
-        <v>320.7556188459661</v>
+        <v>320.8661243657999</v>
       </c>
       <c r="H35">
-        <v>1853.659476640484</v>
+        <v>1734.67554453667</v>
       </c>
       <c r="I35">
-        <v>-18.96455510658126</v>
+        <v>-18.06717336512846</v>
       </c>
       <c r="J35">
-        <v>397.9782934774998</v>
+        <v>393.4411313848016</v>
       </c>
       <c r="K35">
-        <v>1966.562936284219</v>
+        <v>2054.935588439331</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>45.18311791148043</v>
+        <v>47.49600377340909</v>
       </c>
       <c r="G36">
-        <v>338.6143677122149</v>
+        <v>338.3047720891992</v>
       </c>
       <c r="H36">
-        <v>1848.853177030215</v>
+        <v>1806.742217985276</v>
       </c>
       <c r="I36">
-        <v>48.76395697594366</v>
+        <v>46.49570158867314</v>
       </c>
       <c r="J36">
-        <v>360.1769799343444</v>
+        <v>336.8007738895938</v>
       </c>
       <c r="K36">
-        <v>1907.67258037172</v>
+        <v>1803.762945308115</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>48.0285197725746</v>
+        <v>48.65250756287079</v>
       </c>
       <c r="G37">
-        <v>370.72271310851</v>
+        <v>345.3201284722565</v>
       </c>
       <c r="H37">
-        <v>1753.705180357025</v>
+        <v>1755.300945295842</v>
       </c>
       <c r="I37">
-        <v>110.4987040096023</v>
+        <v>111.824295882746</v>
       </c>
       <c r="J37">
-        <v>307.8175056096073</v>
+        <v>291.1893570763515</v>
       </c>
       <c r="K37">
-        <v>1645.235565065551</v>
+        <v>1657.68655675246</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>44.80336352929675</v>
+        <v>44.26756009443473</v>
       </c>
       <c r="G38">
-        <v>381.999842840449</v>
+        <v>373.550688161212</v>
       </c>
       <c r="H38">
-        <v>1785.183463461008</v>
+        <v>1875.917398227347</v>
       </c>
       <c r="I38">
-        <v>176.9559933189985</v>
+        <v>185.1947302654276</v>
       </c>
       <c r="J38">
-        <v>245.7447236506287</v>
+        <v>256.1279391693713</v>
       </c>
       <c r="K38">
-        <v>1325.591700125984</v>
+        <v>1457.759955022134</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>42.75779480433589</v>
+        <v>42.74770307223449</v>
       </c>
       <c r="G39">
-        <v>399.1341666545817</v>
+        <v>395.6863187842915</v>
       </c>
       <c r="H39">
-        <v>1854.940950584212</v>
+        <v>1846.062085391346</v>
       </c>
       <c r="I39">
-        <v>249.4932620729648</v>
+        <v>247.4074536350531</v>
       </c>
       <c r="J39">
-        <v>200.956468776494</v>
+        <v>190.542158136306</v>
       </c>
       <c r="K39">
-        <v>1143.756350340155</v>
+        <v>1137.545523193415</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>43.75980655144284</v>
+        <v>44.20608361983155</v>
       </c>
       <c r="G40">
-        <v>415.3917812070717</v>
+        <v>399.9110860164811</v>
       </c>
       <c r="H40">
-        <v>1835.864009676108</v>
+        <v>1957.766927839558</v>
       </c>
       <c r="I40">
-        <v>315.5163173867984</v>
+        <v>328.7718523351897</v>
       </c>
       <c r="J40">
-        <v>150.8694530371859</v>
+        <v>147.0726705971353</v>
       </c>
       <c r="K40">
-        <v>926.1019300470218</v>
+        <v>866.5078145976113</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>43.43676657411582</v>
+        <v>42.88777823967883</v>
       </c>
       <c r="G41">
-        <v>423.221228323609</v>
+        <v>434.703413902731</v>
       </c>
       <c r="H41">
-        <v>1798.262577103452</v>
+        <v>1899.955827064489</v>
       </c>
       <c r="I41">
-        <v>409.4980722655195</v>
+        <v>411.0299231244663</v>
       </c>
       <c r="J41">
-        <v>100.5409285580143</v>
+        <v>103.9054881655252</v>
       </c>
       <c r="K41">
-        <v>636.7760304651223</v>
+        <v>594.8497765414617</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>42.99769918621341</v>
+        <v>41.16286602353004</v>
       </c>
       <c r="G42">
-        <v>436.3801673396123</v>
+        <v>427.6345284431954</v>
       </c>
       <c r="H42">
-        <v>1841.764051673144</v>
+        <v>1861.217416004693</v>
       </c>
       <c r="I42">
-        <v>475.8496518928749</v>
+        <v>472.8147691934375</v>
       </c>
       <c r="J42">
-        <v>55.18552104164098</v>
+        <v>52.84816524299072</v>
       </c>
       <c r="K42">
-        <v>342.0887765659256</v>
+        <v>351.5529833265941</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>43.93743968176064</v>
+        <v>44.14336802207421</v>
       </c>
       <c r="G43">
-        <v>464.0649846115101</v>
+        <v>483.5311206365262</v>
       </c>
       <c r="H43">
-        <v>1839.422061458951</v>
+        <v>1952.244315023404</v>
       </c>
       <c r="I43">
-        <v>569.1438151496816</v>
+        <v>577.20212387715</v>
       </c>
       <c r="J43">
-        <v>5.373256677692593</v>
+        <v>5.149842581052878</v>
       </c>
       <c r="K43">
-        <v>32.36443058152478</v>
+        <v>32.75509079685532</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>40.37972247814793</v>
+        <v>42.8370634640475</v>
       </c>
       <c r="G44">
-        <v>486.1257019569633</v>
+        <v>469.5930520678021</v>
       </c>
       <c r="H44">
-        <v>1959.639833020285</v>
+        <v>1868.848490710989</v>
       </c>
       <c r="I44">
-        <v>658.0637784215457</v>
+        <v>657.0140256455983</v>
       </c>
       <c r="J44">
-        <v>-42.95304301369131</v>
+        <v>-44.50165388682701</v>
       </c>
       <c r="K44">
-        <v>-275.0303398463301</v>
+        <v>-296.02437321216</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>40.92976695992572</v>
+        <v>42.96304469777365</v>
       </c>
       <c r="G45">
-        <v>510.1479050568878</v>
+        <v>518.4060503163938</v>
       </c>
       <c r="H45">
-        <v>1946.645724548205</v>
+        <v>1921.741128019714</v>
       </c>
       <c r="I45">
-        <v>709.620798544853</v>
+        <v>726.6928664643237</v>
       </c>
       <c r="J45">
-        <v>-89.08046083181578</v>
+        <v>-91.19204157314705</v>
       </c>
       <c r="K45">
-        <v>-635.6746513130423</v>
+        <v>-630.1933551734123</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>41.48376692169619</v>
+        <v>40.07644188947584</v>
       </c>
       <c r="G46">
-        <v>489.7967967563072</v>
+        <v>520.1456993359183</v>
       </c>
       <c r="H46">
-        <v>1920.607569925123</v>
+        <v>1925.820566562969</v>
       </c>
       <c r="I46">
-        <v>809.6265713657115</v>
+        <v>781.129985169177</v>
       </c>
       <c r="J46">
-        <v>-145.0105374988966</v>
+        <v>-141.87781990691</v>
       </c>
       <c r="K46">
-        <v>-1007.997066474454</v>
+        <v>-959.2197259177749</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>41.35360927752043</v>
+        <v>38.56196170917197</v>
       </c>
       <c r="G47">
-        <v>523.0098863675241</v>
+        <v>517.0980747416826</v>
       </c>
       <c r="H47">
-        <v>2027.694521154771</v>
+        <v>1919.659406748257</v>
       </c>
       <c r="I47">
-        <v>877.9694387508805</v>
+        <v>866.779835711695</v>
       </c>
       <c r="J47">
-        <v>-187.1689832074505</v>
+        <v>-189.8133326589423</v>
       </c>
       <c r="K47">
-        <v>-1293.772257431978</v>
+        <v>-1285.400019413099</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>40.24713965327553</v>
+        <v>41.05432693613417</v>
       </c>
       <c r="G48">
-        <v>564.9461397995964</v>
+        <v>520.7655746602571</v>
       </c>
       <c r="H48">
-        <v>1954.80433796968</v>
+        <v>1968.187882797415</v>
       </c>
       <c r="I48">
-        <v>939.9851353184906</v>
+        <v>980.7570973708946</v>
       </c>
       <c r="J48">
-        <v>-248.3179586972853</v>
+        <v>-242.9959646747546</v>
       </c>
       <c r="K48">
-        <v>-1747.937965126506</v>
+        <v>-1678.616838224244</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>37.77697051649163</v>
+        <v>40.84487922457771</v>
       </c>
       <c r="G49">
-        <v>565.2277402980369</v>
+        <v>539.3568918402926</v>
       </c>
       <c r="H49">
-        <v>1889.102145952203</v>
+        <v>1899.659098662035</v>
       </c>
       <c r="I49">
-        <v>1101.946460399229</v>
+        <v>1059.078846851054</v>
       </c>
       <c r="J49">
-        <v>-294.8349311325532</v>
+        <v>-291.8182210947855</v>
       </c>
       <c r="K49">
-        <v>-2159.296102657674</v>
+        <v>-2119.263860396142</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>36.87818571898377</v>
+        <v>37.89910931077888</v>
       </c>
       <c r="G50">
-        <v>576.84590692777</v>
+        <v>572.4497380674999</v>
       </c>
       <c r="H50">
-        <v>1890.517433353463</v>
+        <v>1947.776341059171</v>
       </c>
       <c r="I50">
-        <v>1178.284219352656</v>
+        <v>1203.464682195344</v>
       </c>
       <c r="J50">
-        <v>-339.5104735331493</v>
+        <v>-323.7762680348943</v>
       </c>
       <c r="K50">
-        <v>-2491.71126634447</v>
+        <v>-2597.395265977041</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>36.42493721815836</v>
+        <v>38.72948792601576</v>
       </c>
       <c r="G51">
-        <v>577.3269474444478</v>
+        <v>619.4036164793961</v>
       </c>
       <c r="H51">
-        <v>1941.768928202155</v>
+        <v>1977.560772998821</v>
       </c>
       <c r="I51">
-        <v>1304.224126855916</v>
+        <v>1245.687942812751</v>
       </c>
       <c r="J51">
-        <v>-379.8273707535774</v>
+        <v>-392.093169139641</v>
       </c>
       <c r="K51">
-        <v>-2868.022110133772</v>
+        <v>-2850.741940853648</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>36.25791297283362</v>
+        <v>35.77403098806698</v>
       </c>
       <c r="G52">
-        <v>608.3907961688705</v>
+        <v>611.3412517119644</v>
       </c>
       <c r="H52">
-        <v>1966.645398443575</v>
+        <v>1874.000816804282</v>
       </c>
       <c r="I52">
-        <v>1383.652332340771</v>
+        <v>1328.537074937757</v>
       </c>
       <c r="J52">
-        <v>-432.6588384564178</v>
+        <v>-444.7536946744799</v>
       </c>
       <c r="K52">
-        <v>-3433.330382975158</v>
+        <v>-3341.998425930102</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>37.5973368113402</v>
+        <v>35.35901781065599</v>
       </c>
       <c r="G53">
-        <v>600.08302615889</v>
+        <v>612.9691020489541</v>
       </c>
       <c r="H53">
-        <v>1878.703648592181</v>
+        <v>2010.921589370174</v>
       </c>
       <c r="I53">
-        <v>1391.787983716788</v>
+        <v>1448.174697026669</v>
       </c>
       <c r="J53">
-        <v>-496.0169579553481</v>
+        <v>-503.6237842405068</v>
       </c>
       <c r="K53">
-        <v>-3884.779983630268</v>
+        <v>-3849.497046775004</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.7338309605226</v>
+        <v>38.32997061625624</v>
       </c>
       <c r="G54">
-        <v>651.3272117452311</v>
+        <v>632.8373816120925</v>
       </c>
       <c r="H54">
-        <v>1913.834629073638</v>
+        <v>1938.130398332957</v>
       </c>
       <c r="I54">
-        <v>1609.691150855689</v>
+        <v>1555.595740130158</v>
       </c>
       <c r="J54">
-        <v>-528.5227083363998</v>
+        <v>-526.2101854169086</v>
       </c>
       <c r="K54">
-        <v>-4127.702038277637</v>
+        <v>-4472.436888692434</v>
       </c>
     </row>
   </sheetData>
